--- a/02-PROJETOS/cronograma.xlsx
+++ b/02-PROJETOS/cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guto\Documents\Carlos\SENAI-2024-3DES\02-PROJETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Documents\Carlos\senai\SENAI-2024-3DES\02-PROJETOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17D01F0-CF33-402A-BAE0-82273988B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA99B3-168C-43F8-91A7-6C24FF8843EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{64285216-FF4C-4D73-ADE6-AEABECB7A2F6}"/>
   </bookViews>
@@ -102,10 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="00"/>
-    <numFmt numFmtId="174" formatCode="dd/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -239,7 +238,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -256,23 +255,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +610,7 @@
   <dimension ref="A1:AU18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:U19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -723,145 +722,145 @@
       <c r="AU2" s="14"/>
     </row>
     <row r="3" spans="1:47" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>3</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>4</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>5</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>6</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>7</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>8</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="13">
         <v>9</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>11</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>12</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="13">
         <v>13</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="13">
         <v>14</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="13">
         <v>15</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="13">
         <v>16</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="13">
         <v>17</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="13">
         <v>18</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="13">
         <v>19</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="13">
         <v>20</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="13">
         <v>21</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="13">
         <v>22</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="13">
         <v>23</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="13">
         <v>24</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="13">
         <v>25</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="13">
         <v>26</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="13">
         <v>27</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="13">
         <v>28</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="13">
         <v>29</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="13">
         <v>30</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3" s="13">
         <v>31</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3" s="13">
         <v>32</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AI3" s="13">
         <v>33</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3" s="13">
         <v>34</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="13">
         <v>35</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AL3" s="13">
         <v>36</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="13">
         <v>37</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="13">
         <v>38</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="13">
         <v>39</v>
       </c>
-      <c r="AP3" s="16">
+      <c r="AP3" s="13">
         <v>40</v>
       </c>
-      <c r="AQ3" s="16">
+      <c r="AQ3" s="13">
         <v>41</v>
       </c>
-      <c r="AR3" s="16">
+      <c r="AR3" s="13">
         <v>42</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="13">
         <v>43</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AT3" s="13">
         <v>44</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AU3" s="13">
         <v>45</v>
       </c>
     </row>
@@ -1207,16 +1206,16 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
@@ -1260,16 +1259,16 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
@@ -1323,7 +1322,7 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="6"/>
+      <c r="AD12" s="8"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
@@ -1371,12 +1370,12 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="8"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="16"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
@@ -1508,7 +1507,7 @@
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1555,14 +1554,14 @@
       <c r="AU16" s="8"/>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
